--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryrab\Desktop\Ryan\Etudes\S5\utilisateur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CE89A5-E891-4F69-8B7A-A9B833401F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3B35BF-0CBB-47AA-BD06-BDF10BD00DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C636FD10-6B14-4EFD-AC4B-35F4BB8BAEE0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Initialisation projet</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Spring-security-core</t>
+  </si>
+  <si>
+    <t>Token</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,22 +170,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A94CC87-2E14-407C-B29A-DF063880B654}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,19 +529,19 @@
       <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -535,75 +550,75 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -615,8 +630,8 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -626,71 +641,79 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D12:D13"/>
+  <mergeCells count="3">
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryrab\Desktop\Ryan\Etudes\S5\utilisateur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3B35BF-0CBB-47AA-BD06-BDF10BD00DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2965FF3B-7EF6-4549-8327-9E345465FE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C636FD10-6B14-4EFD-AC4B-35F4BB8BAEE0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Initialisation projet</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Token</t>
+  </si>
+  <si>
+    <t>Duree limite de pin</t>
+  </si>
+  <si>
+    <t>Gestion utilisateur</t>
+  </si>
+  <si>
+    <t>Modification utilisateur</t>
   </si>
 </sst>
 </file>
@@ -127,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +155,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -181,11 +196,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,10 +240,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A94CC87-2E14-407C-B29A-DF063880B654}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -615,40 +673,38 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="7"/>
+      <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -656,64 +712,83 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
         <v>25</v>
       </c>
+      <c r="E20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryrab\Desktop\Ryan\Etudes\S5\utilisateur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2965FF3B-7EF6-4549-8327-9E345465FE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD601B80-A8EA-4C55-9967-5E5796152778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C636FD10-6B14-4EFD-AC4B-35F4BB8BAEE0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Initialisation projet</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Modification utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -231,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,12 +244,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A94CC87-2E14-407C-B29A-DF063880B654}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,10 +675,10 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -685,26 +687,26 @@
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="9"/>
       <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -714,27 +716,27 @@
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="9"/>
+      <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -743,24 +745,27 @@
       <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
       <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="8"/>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -770,19 +775,19 @@
       <c r="D19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryrab\Desktop\Ryan\Etudes\S5\utilisateur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD601B80-A8EA-4C55-9967-5E5796152778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7116C15-4F75-48C3-ADF2-426AFF640D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C636FD10-6B14-4EFD-AC4B-35F4BB8BAEE0}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Parametre gitignore</t>
   </si>
   <si>
-    <t>Envoie e-mail si limite de tentaitve atteint</t>
-  </si>
-  <si>
     <t>Création environnement docker</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Envoie pin par e-mail si limite de tentaitve atteint</t>
   </si>
 </sst>
 </file>
@@ -139,18 +139,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -234,18 +228,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,27 +568,27 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -608,9 +601,9 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -619,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -628,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -639,9 +632,9 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -650,63 +643,63 @@
         <v>15</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -716,78 +709,78 @@
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="C14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="8"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryrab\Desktop\Ryan\Etudes\S5\utilisateur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7116C15-4F75-48C3-ADF2-426AFF640D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028D0FA8-4D5C-4BB6-A443-43B30829DCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C636FD10-6B14-4EFD-AC4B-35F4BB8BAEE0}"/>
   </bookViews>
@@ -139,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,12 +149,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,8 +231,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,7 +560,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,7 +648,7 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -665,13 +657,13 @@
         <v>18</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -680,26 +672,26 @@
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="6"/>
       <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -712,14 +704,14 @@
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="A14" s="6"/>
       <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -728,8 +720,8 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -741,7 +733,7 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
@@ -749,7 +741,7 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
@@ -780,7 +772,7 @@
       <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryrab\Desktop\Ryan\Etudes\S5\utilisateur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7116C15-4F75-48C3-ADF2-426AFF640D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C274879D-5698-4A62-862C-542F11B4094E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C636FD10-6B14-4EFD-AC4B-35F4BB8BAEE0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Initialisation projet</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Envoie pin par e-mail si limite de tentaitve atteint</t>
+  </si>
+  <si>
+    <t>Check firebase</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -224,24 +227,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -251,6 +299,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A94CC87-2E14-407C-B29A-DF063880B654}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,31 +638,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -612,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -621,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -634,7 +699,7 @@
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -643,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -656,7 +721,7 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -665,13 +730,13 @@
         <v>18</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -680,27 +745,27 @@
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="9"/>
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -709,27 +774,27 @@
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="9"/>
+      <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -738,19 +803,21 @@
       <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="5" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="3"/>
@@ -758,34 +825,40 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A16"/>
     <mergeCell ref="B16:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
